--- a/stock_historical_data/1wk/BAJAJHLDNG.NS.xlsx
+++ b/stock_historical_data/1wk/BAJAJHLDNG.NS.xlsx
@@ -64253,7 +64253,9 @@
       <c r="Q1139" t="n">
         <v>0</v>
       </c>
-      <c r="R1139" t="inlineStr"/>
+      <c r="R1139" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BAJAJHLDNG.NS.xlsx
+++ b/stock_historical_data/1wk/BAJAJHLDNG.NS.xlsx
@@ -60887,7 +60887,9 @@
       <c r="P1140" t="n">
         <v>0</v>
       </c>
-      <c r="Q1140" t="inlineStr"/>
+      <c r="Q1140" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BAJAJHLDNG.NS.xlsx
+++ b/stock_historical_data/1wk/BAJAJHLDNG.NS.xlsx
@@ -64365,7 +64365,9 @@
       <c r="Q1141" t="n">
         <v>0</v>
       </c>
-      <c r="R1141" t="inlineStr"/>
+      <c r="R1141" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BAJAJHLDNG.NS.xlsx
+++ b/stock_historical_data/1wk/BAJAJHLDNG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1141"/>
+  <dimension ref="A1:R1143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64133,7 +64133,7 @@
         <v>20</v>
       </c>
       <c r="O1137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1137" t="n">
         <v>0</v>
@@ -64368,6 +64368,114 @@
       <c r="R1141" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>8302.849609375</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>8376</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>8164.89990234375</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>8226.650390625</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>8206.205078125</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>122448</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>8309.9501953125</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>8992.849609375</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>8274.5</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>8536.25</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>8536.25</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>798154</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1143" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1143" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1143" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BAJAJHLDNG.NS.xlsx
+++ b/stock_historical_data/1wk/BAJAJHLDNG.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1143"/>
+  <dimension ref="A1:R1178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -64301,7 +64301,7 @@
         <v>23</v>
       </c>
       <c r="O1140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1140" t="n">
         <v>0</v>
@@ -64421,7 +64421,9 @@
       <c r="Q1142" t="n">
         <v>0</v>
       </c>
-      <c r="R1142" t="inlineStr"/>
+      <c r="R1142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
@@ -64475,7 +64477,1829 @@
       <c r="Q1143" t="n">
         <v>2</v>
       </c>
-      <c r="R1143" t="inlineStr"/>
+      <c r="R1143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>8447.15198614086</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>9920.168119550422</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>8447.102480041347</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>9609.640625</v>
+      </c>
+      <c r="F1144" t="inlineStr"/>
+      <c r="G1144" t="n">
+        <v>949996</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>9706.457356402652</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>9914.204369970308</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>9576.491222316667</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>9843.9775390625</v>
+      </c>
+      <c r="F1145" t="inlineStr"/>
+      <c r="G1145" t="n">
+        <v>277316</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>9860.527831431715</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>9865.000853129441</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>9404.478613369565</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>9656.1103515625</v>
+      </c>
+      <c r="F1146" t="inlineStr"/>
+      <c r="G1146" t="n">
+        <v>141400</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>9691.149328708269</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>10014.59889623046</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>9273.071275725455</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>9423.8125</v>
+      </c>
+      <c r="F1147" t="inlineStr"/>
+      <c r="G1147" t="n">
+        <v>180829</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>9424.160300816786</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>9790.948102842036</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>9291.957651306331</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>9378.0380859375</v>
+      </c>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="n">
+        <v>172775</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>9321.777517359264</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>9470.878245404037</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>9024.420577112158</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>9397.4208984375</v>
+      </c>
+      <c r="F1149" t="inlineStr"/>
+      <c r="G1149" t="n">
+        <v>102500</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>9396.327564460969</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>9542.446273016536</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>9066.317964185815</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>9528.033203125</v>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="n">
+        <v>129204</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>9522.566217623549</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>9861.869376144778</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>9472.964988603524</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>9814.953125</v>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="n">
+        <v>110692</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>9795.917375184301</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>10346.59603838593</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>9701.585930695694</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>9997.40234375</v>
+      </c>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="n">
+        <v>469182</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>10138.80009831089</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>11117.94439464251</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>10039.49862419629</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>10629.2919921875</v>
+      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="n">
+        <v>761833</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>10586.15140979779</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>10696.83345902461</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>10198.58853938506</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>10309.1220703125</v>
+      </c>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="n">
+        <v>463501</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>10451.21502510821</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>11281.95454121579</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>10238.4484906553</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>11096.4736328125</v>
+      </c>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="n">
+        <v>442004</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>11097.26872172733</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>11212.37428487195</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>10293.91383813244</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>10480.240234375</v>
+      </c>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="n">
+        <v>297570</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>10540</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>10750</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>10195.0498046875</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>10368.349609375</v>
+      </c>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="n">
+        <v>166276</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>10499</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>10897</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>10160</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>10851.099609375</v>
+      </c>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="n">
+        <v>117714</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>10880</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>10880</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>10004.849609375</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>10240.400390625</v>
+      </c>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="n">
+        <v>165262</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>10241.349609375</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>10574.9501953125</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>10010</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>10156.4501953125</v>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="n">
+        <v>162853</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>10310</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>10398</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>10064.0498046875</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>10332.5498046875</v>
+      </c>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="n">
+        <v>115324</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>10332.5498046875</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>10736.400390625</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>10110.0498046875</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>10488.2998046875</v>
+      </c>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="n">
+        <v>242563</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>10550</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>11154.5</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>10249</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>10850.099609375</v>
+      </c>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="n">
+        <v>224813</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>10860</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>11005.099609375</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>10352.75</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>10458.2998046875</v>
+      </c>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="n">
+        <v>113881</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>10498.9501953125</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>10680</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>10120.0498046875</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>10468.25</v>
+      </c>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="n">
+        <v>257910</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>10301</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>10790</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>10200</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>10675.849609375</v>
+      </c>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="n">
+        <v>198546</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>10700</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>11545.900390625</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>10675.849609375</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>11131.75</v>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="n">
+        <v>376603</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>11197.9501953125</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>11524</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>10651.400390625</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>10746.75</v>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="n">
+        <v>338568</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>10746.75</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>11398</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>10746.75</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>11300.900390625</v>
+      </c>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="n">
+        <v>216107</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>11300</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>13238</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>11211.9501953125</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>11607.9501953125</v>
+      </c>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="n">
+        <v>1031217</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>11705</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>11764.9501953125</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>10680</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>10827.849609375</v>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="n">
+        <v>401202</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>10827.849609375</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>11099.9501953125</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>10245.099609375</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>10802.099609375</v>
+      </c>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="n">
+        <v>147116</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>10843.9501953125</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>11423.4501953125</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>10665.5498046875</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>11290.099609375</v>
+      </c>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="n">
+        <v>489292</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>11286</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>11867.5</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>10986.099609375</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>11559.7001953125</v>
+      </c>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="n">
+        <v>345829</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>11700</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>12419.4501953125</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>11200</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>11271.150390625</v>
+      </c>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="n">
+        <v>497760</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>11262.599609375</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>12376.349609375</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>11238.5498046875</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>12075.2001953125</v>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="n">
+        <v>484063</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>12032.599609375</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>12586.599609375</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>11602.0498046875</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>12207.849609375</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>370510</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>12407.849609375</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>12603.900390625</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>11202</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>11574.349609375</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>653574</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BAJAJHLDNG.NS.xlsx
+++ b/stock_historical_data/1wk/BAJAJHLDNG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1178"/>
+  <dimension ref="A1:R1182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64531,7 +64531,9 @@
       <c r="Q1144" t="n">
         <v>0</v>
       </c>
-      <c r="R1144" t="inlineStr"/>
+      <c r="R1144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1145">
       <c r="A1145" s="2" t="n">
@@ -64583,7 +64585,9 @@
       <c r="Q1145" t="n">
         <v>0</v>
       </c>
-      <c r="R1145" t="inlineStr"/>
+      <c r="R1145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1146">
       <c r="A1146" s="2" t="n">
@@ -64635,7 +64639,9 @@
       <c r="Q1146" t="n">
         <v>1</v>
       </c>
-      <c r="R1146" t="inlineStr"/>
+      <c r="R1146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1147">
       <c r="A1147" s="2" t="n">
@@ -64687,7 +64693,9 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1148">
       <c r="A1148" s="2" t="n">
@@ -64739,7 +64747,9 @@
       <c r="Q1148" t="n">
         <v>0</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
@@ -64791,7 +64801,9 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
@@ -64843,7 +64855,9 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64895,7 +64909,9 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64947,7 +64963,9 @@
       <c r="Q1152" t="n">
         <v>0</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -64999,7 +65017,9 @@
       <c r="Q1153" t="n">
         <v>0</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -65051,7 +65071,9 @@
       <c r="Q1154" t="n">
         <v>0</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65103,7 +65125,9 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -65155,7 +65179,9 @@
       <c r="Q1156" t="n">
         <v>0</v>
       </c>
-      <c r="R1156" t="inlineStr"/>
+      <c r="R1156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
@@ -65207,7 +65233,9 @@
       <c r="Q1157" t="n">
         <v>0</v>
       </c>
-      <c r="R1157" t="inlineStr"/>
+      <c r="R1157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
@@ -65259,7 +65287,9 @@
       <c r="Q1158" t="n">
         <v>0</v>
       </c>
-      <c r="R1158" t="inlineStr"/>
+      <c r="R1158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
@@ -65311,7 +65341,9 @@
       <c r="Q1159" t="n">
         <v>0</v>
       </c>
-      <c r="R1159" t="inlineStr"/>
+      <c r="R1159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
@@ -65363,7 +65395,9 @@
       <c r="Q1160" t="n">
         <v>0</v>
       </c>
-      <c r="R1160" t="inlineStr"/>
+      <c r="R1160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1161">
       <c r="A1161" s="2" t="n">
@@ -65415,7 +65449,9 @@
       <c r="Q1161" t="n">
         <v>2</v>
       </c>
-      <c r="R1161" t="inlineStr"/>
+      <c r="R1161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" s="2" t="n">
@@ -65467,7 +65503,9 @@
       <c r="Q1162" t="n">
         <v>0</v>
       </c>
-      <c r="R1162" t="inlineStr"/>
+      <c r="R1162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" s="2" t="n">
@@ -65519,7 +65557,9 @@
       <c r="Q1163" t="n">
         <v>0</v>
       </c>
-      <c r="R1163" t="inlineStr"/>
+      <c r="R1163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1164">
       <c r="A1164" s="2" t="n">
@@ -65571,7 +65611,9 @@
       <c r="Q1164" t="n">
         <v>0</v>
       </c>
-      <c r="R1164" t="inlineStr"/>
+      <c r="R1164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1165">
       <c r="A1165" s="2" t="n">
@@ -65623,7 +65665,9 @@
       <c r="Q1165" t="n">
         <v>1</v>
       </c>
-      <c r="R1165" t="inlineStr"/>
+      <c r="R1165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
@@ -65675,7 +65719,9 @@
       <c r="Q1166" t="n">
         <v>0</v>
       </c>
-      <c r="R1166" t="inlineStr"/>
+      <c r="R1166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
@@ -65727,7 +65773,9 @@
       <c r="Q1167" t="n">
         <v>0</v>
       </c>
-      <c r="R1167" t="inlineStr"/>
+      <c r="R1167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
@@ -65779,7 +65827,9 @@
       <c r="Q1168" t="n">
         <v>0</v>
       </c>
-      <c r="R1168" t="inlineStr"/>
+      <c r="R1168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
@@ -65831,7 +65881,9 @@
       <c r="Q1169" t="n">
         <v>0</v>
       </c>
-      <c r="R1169" t="inlineStr"/>
+      <c r="R1169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
@@ -65883,7 +65935,9 @@
       <c r="Q1170" t="n">
         <v>0</v>
       </c>
-      <c r="R1170" t="inlineStr"/>
+      <c r="R1170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
@@ -65935,7 +65989,9 @@
       <c r="Q1171" t="n">
         <v>0</v>
       </c>
-      <c r="R1171" t="inlineStr"/>
+      <c r="R1171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
@@ -65987,7 +66043,9 @@
       <c r="Q1172" t="n">
         <v>0</v>
       </c>
-      <c r="R1172" t="inlineStr"/>
+      <c r="R1172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
@@ -66039,7 +66097,9 @@
       <c r="Q1173" t="n">
         <v>0</v>
       </c>
-      <c r="R1173" t="inlineStr"/>
+      <c r="R1173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1174">
       <c r="A1174" s="2" t="n">
@@ -66091,7 +66151,9 @@
       <c r="Q1174" t="n">
         <v>0</v>
       </c>
-      <c r="R1174" t="inlineStr"/>
+      <c r="R1174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
@@ -66143,7 +66205,9 @@
       <c r="Q1175" t="n">
         <v>0</v>
       </c>
-      <c r="R1175" t="inlineStr"/>
+      <c r="R1175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
@@ -66195,7 +66259,9 @@
       <c r="Q1176" t="n">
         <v>2</v>
       </c>
-      <c r="R1176" t="inlineStr"/>
+      <c r="R1176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1177">
       <c r="A1177" s="2" t="n">
@@ -66247,7 +66313,9 @@
       <c r="Q1177" t="n">
         <v>0</v>
       </c>
-      <c r="R1177" t="inlineStr"/>
+      <c r="R1177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1178">
       <c r="A1178" s="2" t="n">
@@ -66299,7 +66367,217 @@
       <c r="Q1178" t="n">
         <v>1</v>
       </c>
-      <c r="R1178" t="inlineStr"/>
+      <c r="R1178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>11594.75</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>12095</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>11082.650390625</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>11774.9501953125</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>448556</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>11838.099609375</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>12015</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>11283.7998046875</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>11320.2001953125</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>265470</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>11442.849609375</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>12390</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>11311.2998046875</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>12273.5498046875</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>365511</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>12400</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>12899.9501953125</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>12203.349609375</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>12473.0498046875</v>
+      </c>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="n">
+        <v>320511</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
